--- a/biology/Microbiologie/Séquence_consensus/Séquence_consensus.xlsx
+++ b/biology/Microbiologie/Séquence_consensus/Séquence_consensus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>S%C3%A9quence_consensus</t>
+          <t>Séquence_consensus</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En biologie moléculaire et en bioinformatique, une séquence consensus est la séquence nucléotidique ou la séquence peptidique la plus fréquente à chaque position d'un alignement de séquences. Elle représente le résultat d'alignements de séquences multiples dans lesquelles les séquences apparentées sont comparées les unes aux autres afin de déterminer les motifs les plus fréquents. Cette information est importante pour les protéines dépendantes des séquences nucléotidiques, telles que les ARN polymérases.
 Par exemple, les séquences CAAT et TATA (boîte TATA) sont connues pour être des séquences promotrices d'une partie des gènes des eucaryotes. 
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>S%C3%A9quence_consensus</t>
+          <t>Séquence_consensus</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Exemple de notation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">(G/A)T[TC]TAT{G}
 T correspond aux bases nucléiques toujours retrouvées à cette position.
